--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H2">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I2">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J2">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N2">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O2">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P2">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q2">
-        <v>6809.986363558849</v>
+        <v>6882.396562495125</v>
       </c>
       <c r="R2">
-        <v>6809.986363558849</v>
+        <v>27529.5862499805</v>
       </c>
       <c r="S2">
-        <v>0.05653467360909497</v>
+        <v>0.05328305286615596</v>
       </c>
       <c r="T2">
-        <v>0.05653467360909497</v>
+        <v>0.02885903524151958</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H3">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I3">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J3">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N3">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P3">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q3">
-        <v>9460.563249177641</v>
+        <v>10146.85183079288</v>
       </c>
       <c r="R3">
-        <v>9460.563249177641</v>
+        <v>60881.11098475728</v>
       </c>
       <c r="S3">
-        <v>0.07853904940434393</v>
+        <v>0.07855624673989733</v>
       </c>
       <c r="T3">
-        <v>0.07853904940434393</v>
+        <v>0.06382115995125862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H4">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I4">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J4">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N4">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O4">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P4">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q4">
-        <v>4603.348006207306</v>
+        <v>4798.209660940073</v>
       </c>
       <c r="R4">
-        <v>4603.348006207306</v>
+        <v>28789.25796564044</v>
       </c>
       <c r="S4">
-        <v>0.03821575597164691</v>
+        <v>0.03714741757543868</v>
       </c>
       <c r="T4">
-        <v>0.03821575597164691</v>
+        <v>0.03017953857581874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H5">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I5">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J5">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N5">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O5">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P5">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q5">
-        <v>3526.660557999556</v>
+        <v>3531.15540900004</v>
       </c>
       <c r="R5">
-        <v>3526.660557999556</v>
+        <v>21186.93245400023</v>
       </c>
       <c r="S5">
-        <v>0.02927738661026919</v>
+        <v>0.02733796848639452</v>
       </c>
       <c r="T5">
-        <v>0.02927738661026919</v>
+        <v>0.02221008426343933</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H6">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I6">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J6">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N6">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O6">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P6">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q6">
-        <v>3576.735441284743</v>
+        <v>3719.299302597612</v>
       </c>
       <c r="R6">
-        <v>3576.735441284743</v>
+        <v>22315.79581558567</v>
       </c>
       <c r="S6">
-        <v>0.02969309481163806</v>
+        <v>0.02879456589951561</v>
       </c>
       <c r="T6">
-        <v>0.02969309481163806</v>
+        <v>0.02339346229313556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H7">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I7">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J7">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N7">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O7">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P7">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q7">
-        <v>1604.380120278797</v>
+        <v>1613.079851306737</v>
       </c>
       <c r="R7">
-        <v>1604.380120278797</v>
+        <v>6452.319405226948</v>
       </c>
       <c r="S7">
-        <v>0.01331913187524821</v>
+        <v>0.01248835608556503</v>
       </c>
       <c r="T7">
-        <v>0.01331913187524821</v>
+        <v>0.006763912519939056</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H8">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I8">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J8">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N8">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O8">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P8">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q8">
-        <v>13337.11094594049</v>
+        <v>14048.16349809451</v>
       </c>
       <c r="R8">
-        <v>13337.11094594049</v>
+        <v>84288.98098856705</v>
       </c>
       <c r="S8">
-        <v>0.1107211048544587</v>
+        <v>0.1087599401668309</v>
       </c>
       <c r="T8">
-        <v>0.1107211048544587</v>
+        <v>0.08835943449104884</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H9">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I9">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J9">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N9">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P9">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q9">
-        <v>18528.16950420889</v>
+        <v>20711.48214369098</v>
       </c>
       <c r="R9">
-        <v>18528.16950420889</v>
+        <v>186403.3392932188</v>
       </c>
       <c r="S9">
-        <v>0.153815875623432</v>
+        <v>0.1603469064849478</v>
       </c>
       <c r="T9">
-        <v>0.153815875623432</v>
+        <v>0.1954050630820412</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H10">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I10">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J10">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N10">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O10">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P10">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q10">
-        <v>9015.489870889553</v>
+        <v>9793.977025727441</v>
       </c>
       <c r="R10">
-        <v>9015.489870889553</v>
+        <v>88145.79323154697</v>
       </c>
       <c r="S10">
-        <v>0.07484417002716044</v>
+        <v>0.07582431365195282</v>
       </c>
       <c r="T10">
-        <v>0.07484417002716044</v>
+        <v>0.0924024985396471</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H11">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I11">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J11">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N11">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O11">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P11">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q11">
-        <v>6906.836610188464</v>
+        <v>7207.69982844889</v>
       </c>
       <c r="R11">
-        <v>6906.836610188464</v>
+        <v>64869.29845604001</v>
       </c>
       <c r="S11">
-        <v>0.05733869828548276</v>
+        <v>0.05580152894639272</v>
       </c>
       <c r="T11">
-        <v>0.05733869828548276</v>
+        <v>0.06800194355397683</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H12">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I12">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J12">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N12">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O12">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P12">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q12">
-        <v>7004.906450321087</v>
+        <v>7591.73410407171</v>
       </c>
       <c r="R12">
-        <v>7004.906450321087</v>
+        <v>68325.60693664537</v>
       </c>
       <c r="S12">
-        <v>0.05815284769882997</v>
+        <v>0.058774696566802</v>
       </c>
       <c r="T12">
-        <v>0.05815284769882997</v>
+        <v>0.07162516285489981</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H13">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I13">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J13">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N13">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O13">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P13">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q13">
-        <v>3142.120192504663</v>
+        <v>3292.575381390641</v>
       </c>
       <c r="R13">
-        <v>3142.120192504663</v>
+        <v>19755.45228834384</v>
       </c>
       <c r="S13">
-        <v>0.02608503601040474</v>
+        <v>0.02549089790444132</v>
       </c>
       <c r="T13">
-        <v>0.02608503601040474</v>
+        <v>0.02070947556655987</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H14">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I14">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J14">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N14">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O14">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P14">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q14">
-        <v>33.06527535953585</v>
+        <v>8.581105517702667</v>
       </c>
       <c r="R14">
-        <v>33.06527535953585</v>
+        <v>51.486633106216</v>
       </c>
       <c r="S14">
-        <v>0.0002744990151888218</v>
+        <v>6.643434373448133E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002744990151888218</v>
+        <v>5.397300728704301E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H15">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I15">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J15">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N15">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P15">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q15">
-        <v>45.93491266947096</v>
+        <v>12.65129166009022</v>
       </c>
       <c r="R15">
-        <v>45.93491266947096</v>
+        <v>113.861624940812</v>
       </c>
       <c r="S15">
-        <v>0.0003813392797564566</v>
+        <v>9.794545202803006E-05</v>
       </c>
       <c r="T15">
-        <v>0.0003813392797564566</v>
+        <v>0.0001193601900510185</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H16">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I16">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J16">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N16">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O16">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P16">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q16">
-        <v>22.35114158458763</v>
+        <v>5.982500866189556</v>
       </c>
       <c r="R16">
-        <v>22.35114158458763</v>
+        <v>53.842507795706</v>
       </c>
       <c r="S16">
-        <v>0.0001855531607283536</v>
+        <v>4.631612070453514E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001855531607283536</v>
+        <v>5.644265103944935E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H17">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I17">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J17">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N17">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O17">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P17">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q17">
-        <v>17.12338266547279</v>
+        <v>4.402713050445111</v>
       </c>
       <c r="R17">
-        <v>17.12338266547279</v>
+        <v>39.624417454006</v>
       </c>
       <c r="S17">
-        <v>0.0001421537134430083</v>
+        <v>3.408550932675899E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001421537134430083</v>
+        <v>4.153794573395206E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H18">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I18">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J18">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N18">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O18">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P18">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q18">
-        <v>17.3665167506277</v>
+        <v>4.637294506019779</v>
       </c>
       <c r="R18">
-        <v>17.3665167506277</v>
+        <v>41.73565055417801</v>
       </c>
       <c r="S18">
-        <v>0.0001441721471686664</v>
+        <v>3.590162323203989E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001441721471686664</v>
+        <v>4.375113375238694E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H19">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I19">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J19">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N19">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O19">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P19">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q19">
-        <v>7.789923154950416</v>
+        <v>2.011219244176333</v>
       </c>
       <c r="R19">
-        <v>7.789923154950416</v>
+        <v>12.067315465058</v>
       </c>
       <c r="S19">
-        <v>6.466984506190743E-05</v>
+        <v>1.557072457824588E-05</v>
       </c>
       <c r="T19">
-        <v>6.466984506190743E-05</v>
+        <v>1.265006597318148E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H20">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I20">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J20">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N20">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O20">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P20">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q20">
-        <v>6157.022338940375</v>
+        <v>35.065179113624</v>
       </c>
       <c r="R20">
-        <v>6157.022338940375</v>
+        <v>210.391074681744</v>
       </c>
       <c r="S20">
-        <v>0.05111394204818845</v>
+        <v>0.0002714722663111261</v>
       </c>
       <c r="T20">
-        <v>0.05111394204818845</v>
+        <v>0.0002205512056595449</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H21">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I21">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J21">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N21">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P21">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q21">
-        <v>8553.453142849559</v>
+        <v>51.69727923337867</v>
       </c>
       <c r="R21">
-        <v>8553.453142849559</v>
+        <v>465.275513100408</v>
       </c>
       <c r="S21">
-        <v>0.07100846548670312</v>
+        <v>0.000400236870603966</v>
       </c>
       <c r="T21">
-        <v>0.07100846548670312</v>
+        <v>0.0004877444327587848</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H22">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I22">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J22">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N22">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O22">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P22">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q22">
-        <v>4161.963768356683</v>
+        <v>24.44643804782267</v>
       </c>
       <c r="R22">
-        <v>4161.963768356683</v>
+        <v>220.017942430404</v>
       </c>
       <c r="S22">
-        <v>0.03455150284529505</v>
+        <v>0.0001892626847440927</v>
       </c>
       <c r="T22">
-        <v>0.03455150284529505</v>
+        <v>0.000230642970682865</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H23">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I23">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J23">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N23">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O23">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P23">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q23">
-        <v>3188.512675099654</v>
+        <v>17.99091287028933</v>
       </c>
       <c r="R23">
-        <v>3188.512675099654</v>
+        <v>161.918215832604</v>
       </c>
       <c r="S23">
-        <v>0.02647017391250955</v>
+        <v>0.0001392844415275164</v>
       </c>
       <c r="T23">
-        <v>0.02647017391250955</v>
+        <v>0.0001697375127445078</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H24">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I24">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J24">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N24">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O24">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P24">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q24">
-        <v>3233.786212893584</v>
+        <v>18.94948874836134</v>
       </c>
       <c r="R24">
-        <v>3233.786212893584</v>
+        <v>170.545398735252</v>
       </c>
       <c r="S24">
-        <v>0.02684602263608486</v>
+        <v>0.0001467056717230946</v>
       </c>
       <c r="T24">
-        <v>0.02684602263608486</v>
+        <v>0.0001787813164966521</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H25">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I25">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J25">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N25">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O25">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P25">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q25">
-        <v>1450.54684596257</v>
+        <v>8.218493862861999</v>
       </c>
       <c r="R25">
-        <v>1450.54684596257</v>
+        <v>49.310963177172</v>
       </c>
       <c r="S25">
-        <v>0.01204204944227527</v>
+        <v>6.362702860822901E-05</v>
       </c>
       <c r="T25">
-        <v>0.01204204944227527</v>
+        <v>5.169227067930559E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H26">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I26">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J26">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N26">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O26">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P26">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q26">
-        <v>1393.133240795185</v>
+        <v>6531.39250831834</v>
       </c>
       <c r="R26">
-        <v>1393.133240795185</v>
+        <v>39188.35504991005</v>
       </c>
       <c r="S26">
-        <v>0.01156541714735196</v>
+        <v>0.05056560300619667</v>
       </c>
       <c r="T26">
-        <v>0.01156541714735196</v>
+        <v>0.04108082515927158</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H27">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I27">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J27">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N27">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P27">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q27">
-        <v>1935.367331952629</v>
+        <v>9629.359690170249</v>
       </c>
       <c r="R27">
-        <v>1935.367331952629</v>
+        <v>86664.23721153225</v>
       </c>
       <c r="S27">
-        <v>0.0160668986080711</v>
+        <v>0.0745498572742169</v>
       </c>
       <c r="T27">
-        <v>0.0160668986080711</v>
+        <v>0.0908493957430542</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H28">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I28">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J28">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N28">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O28">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P28">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q28">
-        <v>941.7165885548426</v>
+        <v>4553.499692764453</v>
       </c>
       <c r="R28">
-        <v>941.7165885548426</v>
+        <v>40981.49723488007</v>
       </c>
       <c r="S28">
-        <v>0.007817877617363651</v>
+        <v>0.03525288940450606</v>
       </c>
       <c r="T28">
-        <v>0.007817877617363651</v>
+        <v>0.042960561129119</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H29">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I29">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J29">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N29">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O29">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P29">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q29">
-        <v>721.4563715782424</v>
+        <v>3351.065544483725</v>
       </c>
       <c r="R29">
-        <v>721.4563715782424</v>
+        <v>30159.58990035352</v>
       </c>
       <c r="S29">
-        <v>0.005989336587902172</v>
+        <v>0.0259437248265664</v>
       </c>
       <c r="T29">
-        <v>0.005989336587902172</v>
+        <v>0.03161604609312633</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H30">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I30">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J30">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N30">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O30">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P30">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q30">
-        <v>731.7002958255556</v>
+        <v>3529.614049495115</v>
       </c>
       <c r="R30">
-        <v>731.7002958255556</v>
+        <v>31766.52644545603</v>
       </c>
       <c r="S30">
-        <v>0.006074378889439982</v>
+        <v>0.02732603538442329</v>
       </c>
       <c r="T30">
-        <v>0.006074378889439982</v>
+        <v>0.03330058424654778</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H31">
+        <v>412.820641</v>
+      </c>
+      <c r="I31">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J31">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>11.1245335</v>
+      </c>
+      <c r="N31">
+        <v>22.249067</v>
+      </c>
+      <c r="O31">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P31">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q31">
+        <v>1530.812350098658</v>
+      </c>
+      <c r="R31">
+        <v>9184.874100591946</v>
+      </c>
+      <c r="S31">
+        <v>0.01185144660552666</v>
+      </c>
+      <c r="T31">
+        <v>0.009628426775142369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>30.755622</v>
+      </c>
+      <c r="H32">
+        <v>61.511244</v>
+      </c>
+      <c r="I32">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J32">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>47.464142</v>
+      </c>
+      <c r="N32">
+        <v>94.928284</v>
+      </c>
+      <c r="O32">
+        <v>0.2242480928640021</v>
+      </c>
+      <c r="P32">
+        <v>0.1646949584305048</v>
+      </c>
+      <c r="Q32">
+        <v>1459.789209906324</v>
+      </c>
+      <c r="R32">
+        <v>5839.156839625296</v>
+      </c>
+      <c r="S32">
+        <v>0.01130159021477307</v>
+      </c>
+      <c r="T32">
+        <v>0.006121139325718195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>30.755622</v>
+      </c>
+      <c r="H33">
+        <v>61.511244</v>
+      </c>
+      <c r="I33">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J33">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>69.97731266666666</v>
+      </c>
+      <c r="N33">
+        <v>209.931938</v>
+      </c>
+      <c r="O33">
+        <v>0.3306133482671609</v>
+      </c>
+      <c r="P33">
+        <v>0.3642194965005931</v>
+      </c>
+      <c r="Q33">
+        <v>2152.195776951812</v>
+      </c>
+      <c r="R33">
+        <v>12913.17466171087</v>
+      </c>
+      <c r="S33">
+        <v>0.01666215544546693</v>
+      </c>
+      <c r="T33">
+        <v>0.01353677310142922</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>30.755622</v>
+      </c>
+      <c r="H34">
+        <v>61.511244</v>
+      </c>
+      <c r="I34">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J34">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>33.09063966666667</v>
+      </c>
+      <c r="N34">
+        <v>99.271919</v>
+      </c>
+      <c r="O34">
+        <v>0.1563393442759357</v>
+      </c>
+      <c r="P34">
+        <v>0.172230908261456</v>
+      </c>
+      <c r="Q34">
+        <v>1017.723205326206</v>
+      </c>
+      <c r="R34">
+        <v>6106.339231957236</v>
+      </c>
+      <c r="S34">
+        <v>0.007879144838589551</v>
+      </c>
+      <c r="T34">
+        <v>0.006401224395148775</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>30.755622</v>
+      </c>
+      <c r="H35">
+        <v>61.511244</v>
+      </c>
+      <c r="I35">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J35">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>24.35245633333333</v>
+      </c>
+      <c r="N35">
+        <v>73.05736899999999</v>
+      </c>
+      <c r="O35">
+        <v>0.1150551060062118</v>
+      </c>
+      <c r="P35">
+        <v>0.126750214409196</v>
+      </c>
+      <c r="Q35">
+        <v>748.9749417595059</v>
+      </c>
+      <c r="R35">
+        <v>4493.849650557036</v>
+      </c>
+      <c r="S35">
+        <v>0.005798513796003905</v>
+      </c>
+      <c r="T35">
+        <v>0.004710865040175016</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>29.6430416415111</v>
-      </c>
-      <c r="H31">
-        <v>29.6430416415111</v>
-      </c>
-      <c r="I31">
-        <v>0.05023863168558636</v>
-      </c>
-      <c r="J31">
-        <v>0.05023863168558636</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>11.0721234786409</v>
-      </c>
-      <c r="N31">
-        <v>11.0721234786409</v>
-      </c>
-      <c r="O31">
-        <v>0.05423561000844764</v>
-      </c>
-      <c r="P31">
-        <v>0.05423561000844764</v>
-      </c>
-      <c r="Q31">
-        <v>328.211417337305</v>
-      </c>
-      <c r="R31">
-        <v>328.211417337305</v>
-      </c>
-      <c r="S31">
-        <v>0.002724722835457502</v>
-      </c>
-      <c r="T31">
-        <v>0.002724722835457502</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>30.755622</v>
+      </c>
+      <c r="H36">
+        <v>61.511244</v>
+      </c>
+      <c r="I36">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J36">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>25.64998233333334</v>
+      </c>
+      <c r="N36">
+        <v>76.94994700000001</v>
+      </c>
+      <c r="O36">
+        <v>0.121185370215801</v>
+      </c>
+      <c r="P36">
+        <v>0.1335036070218497</v>
+      </c>
+      <c r="Q36">
+        <v>788.8811609506781</v>
+      </c>
+      <c r="R36">
+        <v>4733.286965704068</v>
+      </c>
+      <c r="S36">
+        <v>0.006107465070104966</v>
+      </c>
+      <c r="T36">
+        <v>0.004961865177017535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>30.755622</v>
+      </c>
+      <c r="H37">
+        <v>61.511244</v>
+      </c>
+      <c r="I37">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J37">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>11.1245335</v>
+      </c>
+      <c r="N37">
+        <v>22.249067</v>
+      </c>
+      <c r="O37">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P37">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q37">
+        <v>342.141947252337</v>
+      </c>
+      <c r="R37">
+        <v>1368.567789009348</v>
+      </c>
+      <c r="S37">
+        <v>0.002648840022169055</v>
+      </c>
+      <c r="T37">
+        <v>0.001434658178106737</v>
       </c>
     </row>
   </sheetData>
